--- a/Data/DataTable.xlsx
+++ b/Data/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\AppData\Local\Programs\UiPath\Studio\IACET\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8148A8B2-97AC-49DF-A9D7-0ED3B9D84308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1192CC-8A80-4EF2-A666-AB502896838D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -46,12 +46,22 @@
     <x:t>Web</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">John Smith
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">98 North Road
-</x:t>
+    <x:t>XRD Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PDSR ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Office Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ERDT Website</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Phone Number</x:t>
   </x:si>
   <x:si>
     <x:t>System.Text.RegularExpressions.MatchCollection</x:t>
@@ -387,12 +397,25 @@
   <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="I10" sqref="I10 1:1048576"/>
+      <x:selection activeCell="D9" sqref="D9 1:1048576"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="11.855469" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="14.710938" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="12.425781" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="11.570312" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="9.285156" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="25.140625" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="7" width="12.285156" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="8" width="7.855469" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="9" width="14.140625" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="24.710938" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="11" max="11" width="13.425781" style="0" bestFit="1" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:9">
+    <x:row r="1" spans="1:12">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -411,19 +434,61 @@
       <x:c r="F1" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L1" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
-    <x:row r="3" spans="1:9">
+    <x:row r="3" spans="1:12">
       <x:c r="A3" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/DataTable.xlsx
+++ b/Data/DataTable.xlsx
@@ -1,131 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
-  <x:workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\AppData\Local\Programs\UiPath\Studio\IACET\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1192CC-8A80-4EF2-A666-AB502896838D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="162913"/>
-  <x:extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3215C480-A56A-4B68-B6B2-E67FC9A766DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </x:ext>
-  </x:extLst>
-</x:workbook>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <x:si>
-    <x:t>Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Designation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITS ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Web</x:t>
-  </x:si>
-  <x:si>
-    <x:t>XRD Number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PDSR ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Office Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ERDT Website</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Phone Number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>System.Text.RegularExpressions.MatchCollection</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="2" x14ac:knownFonts="1">
-    <x:font>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </x:cellStyleXfs>
-  <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="3">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
-</x:styleSheet>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -390,112 +347,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="D9" sqref="D9 1:1048576"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <x:cols>
-    <x:col min="1" max="1" width="11.855469" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="14.710938" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="12.425781" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="11.570312" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="9.285156" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="6" max="6" width="25.140625" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="7" max="7" width="12.285156" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="8" max="8" width="7.855469" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="9" max="9" width="14.140625" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="10" max="10" width="24.710938" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="11" max="11" width="13.425781" style="0" bestFit="1" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:12">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G1" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I1" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="J1" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="K1" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="L1" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:12">
-      <x:c r="A3" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="J3" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="K3" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="L3" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="E3:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/DataTable.xlsx
+++ b/Data/DataTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\AppData\Local\Programs\UiPath\Studio\IACET\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3215C480-A56A-4B68-B6B2-E67FC9A766DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDE6ED9-F269-4620-A718-89A7453A49F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,6 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -39,18 +35,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -65,9 +55,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,13 +337,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E3:E9"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="19.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
@@ -368,30 +357,9 @@
     <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="3" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="1"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>